--- a/biology/Zoologie/Attagenus_unicolor/Attagenus_unicolor.xlsx
+++ b/biology/Zoologie/Attagenus_unicolor/Attagenus_unicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attagenus unicolor, l'attagène des tapis, est une espèce d'insectes coléoptères de la famille des Dermestidae. Cet insecte, à répartition cosmopolite, de 3 à 5 mm de long, est un ravageur domestique, qui peut être une menace sérieuse également pour les denrées stockées. La larve, de couleur brun rougeâtre et couverte de poils, peut atteindre 7 mm de long. C'est la forme larvaire qui cause le plus de dégâts. Elle se nourrit de fibres naturelles d'origine végétale ou animale, et peut endommager les tapis, les meubles et les vêtements.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (5 juin 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (5 juin 2021) :
 Attagenus unicolor japonicus Reitter, 1877
 Attagenus unicolor simulans Solsky, 1876
 Attagenus unicolor unicolor (Brahm, 1791)</t>
@@ -544,10 +558,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Attagenus unicolor a une aire de répartition cosmopolite[3].
-Cet insecte aurait été importé aux États-Unis en provenance d'Europe au début du xixe siècle[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Attagenus unicolor a une aire de répartition cosmopolite.
+Cet insecte aurait été importé aux États-Unis en provenance d'Europe au début du xixe siècle.
 </t>
         </is>
       </c>
